--- a/Data/data_test.xlsx
+++ b/Data/data_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\Selenium-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A4653-D708-4FFD-9139-B0F141091546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1760CC-7BCF-4AF1-A8CB-9CA8146A82DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3285" windowWidth="23460" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>TC_002</t>
   </si>
   <si>
-    <t>papha</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>The password is invalid. Try again.</t>
+  </si>
+  <si>
+    <t>pandp</t>
   </si>
 </sst>
 </file>
@@ -130,13 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +419,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +427,8 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -448,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,17 +457,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,17 +475,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
